--- a/records/lfw_model_outputs.xlsx
+++ b/records/lfw_model_outputs.xlsx
@@ -44370,7 +44370,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
